--- a/formats/excel/PSY/2022/Formats RPSA 22.xlsx
+++ b/formats/excel/PSY/2022/Formats RPSA 22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/PSY/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C64239-C75D-774D-ACCC-32D195B45435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA85E101-9030-7B4A-B67E-11DFFBE1C17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="460" windowWidth="27340" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,14 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -674,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1000,13 +1008,13 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>97</v>
       </c>
       <c r="D14">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1027,10 +1035,10 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1051,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D16">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -1075,10 +1083,10 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D17">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -1099,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D18">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -1123,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D19">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -1147,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D20">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -1171,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D21">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -1195,10 +1203,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D22">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -1219,10 +1227,10 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D23">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1243,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D24">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -1267,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D25">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -1291,10 +1299,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D26">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -1315,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D27">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -1339,10 +1347,10 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D28">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -1363,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D29">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -1387,10 +1395,10 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D30">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
         <v>20</v>
@@ -1411,10 +1419,10 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D31">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
@@ -1435,10 +1443,10 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D32">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
@@ -1459,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D33">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -1483,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D34">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -1507,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D35">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -1531,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D36">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -1555,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D37">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -1579,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D38">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -1603,10 +1611,10 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D39">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1627,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D40">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1651,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D41">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -1672,10 +1680,10 @@
         <v>18</v>
       </c>
       <c r="C42">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D42">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1696,10 +1704,10 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D43">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -1720,10 +1728,10 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D44">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1744,10 +1752,10 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D45">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
         <v>20</v>
@@ -1768,10 +1776,10 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D46">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -1789,10 +1797,7 @@
         <v>92</v>
       </c>
       <c r="C47">
-        <v>182</v>
-      </c>
-      <c r="D47">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -1802,7 +1807,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
